--- a/data/GreatLink/GreatLink Income Focus_Dividends.xlsx
+++ b/data/GreatLink/GreatLink Income Focus_Dividends.xlsx
@@ -7,7 +7,7 @@
     <workbookView activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="DividendHistory" sheetId="1" r:id="GemRid388914"/>
+    <sheet name="DividendHistory" sheetId="1" r:id="GemRid264781"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519"/>

--- a/data/GreatLink/GreatLink Income Focus_Dividends.xlsx
+++ b/data/GreatLink/GreatLink Income Focus_Dividends.xlsx
@@ -7,7 +7,7 @@
     <workbookView activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="DividendHistory" sheetId="1" r:id="GemRid264781"/>
+    <sheet name="DividendHistory" sheetId="1" r:id="GemRid86207"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519"/>

--- a/data/GreatLink/GreatLink Income Focus_Dividends.xlsx
+++ b/data/GreatLink/GreatLink Income Focus_Dividends.xlsx
@@ -7,7 +7,7 @@
     <workbookView activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="DividendHistory" sheetId="1" r:id="GemRid86207"/>
+    <sheet name="DividendHistory" sheetId="1" r:id="GemRid167521"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519"/>

--- a/data/GreatLink/GreatLink Income Focus_Dividends.xlsx
+++ b/data/GreatLink/GreatLink Income Focus_Dividends.xlsx
@@ -7,7 +7,7 @@
     <workbookView activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="DividendHistory" sheetId="1" r:id="GemRid167521"/>
+    <sheet name="DividendHistory" sheetId="1" r:id="GemRid171233"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519"/>

--- a/data/GreatLink/GreatLink Income Focus_Dividends.xlsx
+++ b/data/GreatLink/GreatLink Income Focus_Dividends.xlsx
@@ -7,7 +7,7 @@
     <workbookView activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="DividendHistory" sheetId="1" r:id="GemRid171233"/>
+    <sheet name="DividendHistory" sheetId="1" r:id="GemRid528959"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519"/>

--- a/data/GreatLink/GreatLink Income Focus_Dividends.xlsx
+++ b/data/GreatLink/GreatLink Income Focus_Dividends.xlsx
@@ -7,7 +7,7 @@
     <workbookView activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="DividendHistory" sheetId="1" r:id="GemRid528959"/>
+    <sheet name="DividendHistory" sheetId="1" r:id="GemRid405928"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
   <si>
     <t>XD Date</t>
   </si>
@@ -30,84 +30,6 @@
   </si>
   <si>
     <t>0.016</t>
-  </si>
-  <si>
-    <t>06/11/2023</t>
-  </si>
-  <si>
-    <t>0.015</t>
-  </si>
-  <si>
-    <t>09/05/2023</t>
-  </si>
-  <si>
-    <t>04/11/2022</t>
-  </si>
-  <si>
-    <t>09/05/2022</t>
-  </si>
-  <si>
-    <t>0.017</t>
-  </si>
-  <si>
-    <t>05/11/2021</t>
-  </si>
-  <si>
-    <t>0.018</t>
-  </si>
-  <si>
-    <t>06/05/2021</t>
-  </si>
-  <si>
-    <t>0.019</t>
-  </si>
-  <si>
-    <t>06/11/2020</t>
-  </si>
-  <si>
-    <t>06/05/2020</t>
-  </si>
-  <si>
-    <t>06/11/2019</t>
-  </si>
-  <si>
-    <t>06/05/2019</t>
-  </si>
-  <si>
-    <t>05/11/2018</t>
-  </si>
-  <si>
-    <t>04/05/2018</t>
-  </si>
-  <si>
-    <t>06/11/2017</t>
-  </si>
-  <si>
-    <t>05/05/2017</t>
-  </si>
-  <si>
-    <t>04/11/2016</t>
-  </si>
-  <si>
-    <t>07/11/2016</t>
-  </si>
-  <si>
-    <t>10/05/2016</t>
-  </si>
-  <si>
-    <t>11/05/2016</t>
-  </si>
-  <si>
-    <t>06/11/2015</t>
-  </si>
-  <si>
-    <t>09/11/2015</t>
-  </si>
-  <si>
-    <t>06/05/2015</t>
-  </si>
-  <si>
-    <t>07/05/2015</t>
   </si>
 </sst>
 </file>
@@ -458,204 +380,6 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="s">
-        <v>7</v>
-      </c>
-      <c r="B4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="s">
-        <v>8</v>
-      </c>
-      <c r="B5" t="s">
-        <v>8</v>
-      </c>
-      <c r="C5" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="s">
-        <v>9</v>
-      </c>
-      <c r="B6" t="s">
-        <v>9</v>
-      </c>
-      <c r="C6" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="s">
-        <v>11</v>
-      </c>
-      <c r="B7" t="s">
-        <v>11</v>
-      </c>
-      <c r="C7" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="s">
-        <v>13</v>
-      </c>
-      <c r="B8" t="s">
-        <v>13</v>
-      </c>
-      <c r="C8" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="s">
-        <v>15</v>
-      </c>
-      <c r="B9" t="s">
-        <v>15</v>
-      </c>
-      <c r="C9" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="s">
-        <v>16</v>
-      </c>
-      <c r="B10" t="s">
-        <v>16</v>
-      </c>
-      <c r="C10" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="s">
-        <v>17</v>
-      </c>
-      <c r="B11" t="s">
-        <v>17</v>
-      </c>
-      <c r="C11" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="s">
-        <v>18</v>
-      </c>
-      <c r="B12" t="s">
-        <v>18</v>
-      </c>
-      <c r="C12" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="s">
-        <v>19</v>
-      </c>
-      <c r="B13" t="s">
-        <v>19</v>
-      </c>
-      <c r="C13" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="s">
-        <v>20</v>
-      </c>
-      <c r="B14" t="s">
-        <v>20</v>
-      </c>
-      <c r="C14" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="s">
-        <v>21</v>
-      </c>
-      <c r="B15" t="s">
-        <v>21</v>
-      </c>
-      <c r="C15" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="s">
-        <v>22</v>
-      </c>
-      <c r="B16" t="s">
-        <v>22</v>
-      </c>
-      <c r="C16" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="s">
-        <v>23</v>
-      </c>
-      <c r="B17" t="s">
-        <v>24</v>
-      </c>
-      <c r="C17" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="s">
-        <v>25</v>
-      </c>
-      <c r="B18" t="s">
-        <v>26</v>
-      </c>
-      <c r="C18" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="s">
-        <v>27</v>
-      </c>
-      <c r="B19" t="s">
-        <v>28</v>
-      </c>
-      <c r="C19" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="s">
-        <v>29</v>
-      </c>
-      <c r="B20" t="s">
-        <v>30</v>
-      </c>
-      <c r="C20" t="s">
-        <v>14</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="1.8" right="1.8" top="1.8999999999999999" bottom="1.8999999999999999" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" scale="100" paperSize="0" firstPageNumber="1" fitToWidth="0" fitToHeight="0" horizontalDpi="0" verticalDpi="0" copies="1"/>

--- a/data/GreatLink/GreatLink Income Focus_Dividends.xlsx
+++ b/data/GreatLink/GreatLink Income Focus_Dividends.xlsx
@@ -7,7 +7,7 @@
     <workbookView activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="DividendHistory" sheetId="1" r:id="GemRid405928"/>
+    <sheet name="DividendHistory" sheetId="1" r:id="GemRid453208"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="31">
   <si>
     <t>XD Date</t>
   </si>
@@ -30,6 +30,84 @@
   </si>
   <si>
     <t>0.016</t>
+  </si>
+  <si>
+    <t>06/11/2023</t>
+  </si>
+  <si>
+    <t>0.015</t>
+  </si>
+  <si>
+    <t>09/05/2023</t>
+  </si>
+  <si>
+    <t>04/11/2022</t>
+  </si>
+  <si>
+    <t>09/05/2022</t>
+  </si>
+  <si>
+    <t>0.017</t>
+  </si>
+  <si>
+    <t>05/11/2021</t>
+  </si>
+  <si>
+    <t>0.018</t>
+  </si>
+  <si>
+    <t>06/05/2021</t>
+  </si>
+  <si>
+    <t>0.019</t>
+  </si>
+  <si>
+    <t>06/11/2020</t>
+  </si>
+  <si>
+    <t>06/05/2020</t>
+  </si>
+  <si>
+    <t>06/11/2019</t>
+  </si>
+  <si>
+    <t>06/05/2019</t>
+  </si>
+  <si>
+    <t>05/11/2018</t>
+  </si>
+  <si>
+    <t>04/05/2018</t>
+  </si>
+  <si>
+    <t>06/11/2017</t>
+  </si>
+  <si>
+    <t>05/05/2017</t>
+  </si>
+  <si>
+    <t>04/11/2016</t>
+  </si>
+  <si>
+    <t>07/11/2016</t>
+  </si>
+  <si>
+    <t>10/05/2016</t>
+  </si>
+  <si>
+    <t>11/05/2016</t>
+  </si>
+  <si>
+    <t>06/11/2015</t>
+  </si>
+  <si>
+    <t>09/11/2015</t>
+  </si>
+  <si>
+    <t>06/05/2015</t>
+  </si>
+  <si>
+    <t>07/05/2015</t>
   </si>
 </sst>
 </file>
@@ -380,6 +458,204 @@
         <v>4</v>
       </c>
     </row>
+    <row r="3">
+      <c r="A3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s">
+        <v>11</v>
+      </c>
+      <c r="B7" t="s">
+        <v>11</v>
+      </c>
+      <c r="C7" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="s">
+        <v>13</v>
+      </c>
+      <c r="B8" t="s">
+        <v>13</v>
+      </c>
+      <c r="C8" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="s">
+        <v>15</v>
+      </c>
+      <c r="B9" t="s">
+        <v>15</v>
+      </c>
+      <c r="C9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="s">
+        <v>16</v>
+      </c>
+      <c r="B10" t="s">
+        <v>16</v>
+      </c>
+      <c r="C10" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="s">
+        <v>17</v>
+      </c>
+      <c r="B11" t="s">
+        <v>17</v>
+      </c>
+      <c r="C11" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="s">
+        <v>18</v>
+      </c>
+      <c r="B12" t="s">
+        <v>18</v>
+      </c>
+      <c r="C12" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="s">
+        <v>19</v>
+      </c>
+      <c r="B13" t="s">
+        <v>19</v>
+      </c>
+      <c r="C13" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="s">
+        <v>20</v>
+      </c>
+      <c r="B14" t="s">
+        <v>20</v>
+      </c>
+      <c r="C14" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="s">
+        <v>21</v>
+      </c>
+      <c r="B15" t="s">
+        <v>21</v>
+      </c>
+      <c r="C15" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="s">
+        <v>22</v>
+      </c>
+      <c r="B16" t="s">
+        <v>22</v>
+      </c>
+      <c r="C16" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" t="s">
+        <v>24</v>
+      </c>
+      <c r="C17" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="s">
+        <v>25</v>
+      </c>
+      <c r="B18" t="s">
+        <v>26</v>
+      </c>
+      <c r="C18" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="s">
+        <v>27</v>
+      </c>
+      <c r="B19" t="s">
+        <v>28</v>
+      </c>
+      <c r="C19" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="s">
+        <v>29</v>
+      </c>
+      <c r="B20" t="s">
+        <v>30</v>
+      </c>
+      <c r="C20" t="s">
+        <v>14</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="1.8" right="1.8" top="1.8999999999999999" bottom="1.8999999999999999" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" scale="100" paperSize="0" firstPageNumber="1" fitToWidth="0" fitToHeight="0" horizontalDpi="0" verticalDpi="0" copies="1"/>

--- a/data/GreatLink/GreatLink Income Focus_Dividends.xlsx
+++ b/data/GreatLink/GreatLink Income Focus_Dividends.xlsx
@@ -7,7 +7,7 @@
     <workbookView activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="DividendHistory" sheetId="1" r:id="GemRid453208"/>
+    <sheet name="DividendHistory" sheetId="1" r:id="GemRid827149"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="32">
   <si>
     <t>XD Date</t>
   </si>
@@ -26,10 +26,13 @@
     <t>Gross Dividend</t>
   </si>
   <si>
+    <t>06/11/2024</t>
+  </si>
+  <si>
+    <t>0.016</t>
+  </si>
+  <si>
     <t>06/05/2024</t>
-  </si>
-  <si>
-    <t>0.016</t>
   </si>
   <si>
     <t>06/11/2023</t>
@@ -466,18 +469,18 @@
         <v>5</v>
       </c>
       <c r="C3" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" t="s">
         <v>7</v>
-      </c>
-      <c r="B4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" t="s">
-        <v>4</v>
       </c>
     </row>
     <row r="5">
@@ -488,7 +491,7 @@
         <v>8</v>
       </c>
       <c r="C5" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="6">
@@ -499,40 +502,40 @@
         <v>9</v>
       </c>
       <c r="C6" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
+        <v>10</v>
+      </c>
+      <c r="B7" t="s">
+        <v>10</v>
+      </c>
+      <c r="C7" t="s">
         <v>11</v>
-      </c>
-      <c r="B7" t="s">
-        <v>11</v>
-      </c>
-      <c r="C7" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
+        <v>12</v>
+      </c>
+      <c r="B8" t="s">
+        <v>12</v>
+      </c>
+      <c r="C8" t="s">
         <v>13</v>
-      </c>
-      <c r="B8" t="s">
-        <v>13</v>
-      </c>
-      <c r="C8" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
+        <v>14</v>
+      </c>
+      <c r="B9" t="s">
+        <v>14</v>
+      </c>
+      <c r="C9" t="s">
         <v>15</v>
-      </c>
-      <c r="B9" t="s">
-        <v>15</v>
-      </c>
-      <c r="C9" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="10">
@@ -543,7 +546,7 @@
         <v>16</v>
       </c>
       <c r="C10" t="s">
-        <v>4</v>
+        <v>11</v>
       </c>
     </row>
     <row r="11">
@@ -554,7 +557,7 @@
         <v>17</v>
       </c>
       <c r="C11" t="s">
-        <v>12</v>
+        <v>4</v>
       </c>
     </row>
     <row r="12">
@@ -565,7 +568,7 @@
         <v>18</v>
       </c>
       <c r="C12" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="13">
@@ -576,7 +579,7 @@
         <v>19</v>
       </c>
       <c r="C13" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
     </row>
     <row r="14">
@@ -587,7 +590,7 @@
         <v>20</v>
       </c>
       <c r="C14" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="15">
@@ -598,7 +601,7 @@
         <v>21</v>
       </c>
       <c r="C15" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="16">
@@ -609,7 +612,7 @@
         <v>22</v>
       </c>
       <c r="C16" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
     </row>
     <row r="17">
@@ -617,43 +620,54 @@
         <v>23</v>
       </c>
       <c r="B17" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C17" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
+        <v>24</v>
+      </c>
+      <c r="B18" t="s">
         <v>25</v>
       </c>
-      <c r="B18" t="s">
-        <v>26</v>
-      </c>
       <c r="C18" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
+        <v>26</v>
+      </c>
+      <c r="B19" t="s">
         <v>27</v>
       </c>
-      <c r="B19" t="s">
-        <v>28</v>
-      </c>
       <c r="C19" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
+        <v>28</v>
+      </c>
+      <c r="B20" t="s">
         <v>29</v>
       </c>
-      <c r="B20" t="s">
+      <c r="C20" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="s">
         <v>30</v>
       </c>
-      <c r="C20" t="s">
-        <v>14</v>
+      <c r="B21" t="s">
+        <v>31</v>
+      </c>
+      <c r="C21" t="s">
+        <v>15</v>
       </c>
     </row>
   </sheetData>

--- a/data/GreatLink/GreatLink Income Focus_Dividends.xlsx
+++ b/data/GreatLink/GreatLink Income Focus_Dividends.xlsx
@@ -7,7 +7,7 @@
     <workbookView activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="DividendHistory" sheetId="1" r:id="GemRid827149"/>
+    <sheet name="DividendHistory" sheetId="1" r:id="GemRid978303"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519"/>

--- a/data/GreatLink/GreatLink Income Focus_Dividends.xlsx
+++ b/data/GreatLink/GreatLink Income Focus_Dividends.xlsx
@@ -7,7 +7,7 @@
     <workbookView activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="DividendHistory" sheetId="1" r:id="GemRid978303"/>
+    <sheet name="DividendHistory" sheetId="1" r:id="GemRid369403"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519"/>

--- a/data/GreatLink/GreatLink Income Focus_Dividends.xlsx
+++ b/data/GreatLink/GreatLink Income Focus_Dividends.xlsx
@@ -7,7 +7,7 @@
     <workbookView activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="DividendHistory" sheetId="1" r:id="GemRid369403"/>
+    <sheet name="DividendHistory" sheetId="1" r:id="GemRid166438"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519"/>

--- a/data/GreatLink/GreatLink Income Focus_Dividends.xlsx
+++ b/data/GreatLink/GreatLink Income Focus_Dividends.xlsx
@@ -7,7 +7,7 @@
     <workbookView activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="DividendHistory" sheetId="1" r:id="GemRid166438"/>
+    <sheet name="DividendHistory" sheetId="1" r:id="GemRid775223"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="33">
   <si>
     <t>XD Date</t>
   </si>
@@ -26,10 +26,13 @@
     <t>Gross Dividend</t>
   </si>
   <si>
+    <t>06/05/2025</t>
+  </si>
+  <si>
+    <t>0.016</t>
+  </si>
+  <si>
     <t>06/11/2024</t>
-  </si>
-  <si>
-    <t>0.016</t>
   </si>
   <si>
     <t>06/05/2024</t>
@@ -480,18 +483,18 @@
         <v>6</v>
       </c>
       <c r="C4" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5" t="s">
         <v>8</v>
-      </c>
-      <c r="B5" t="s">
-        <v>8</v>
-      </c>
-      <c r="C5" t="s">
-        <v>4</v>
       </c>
     </row>
     <row r="6">
@@ -502,7 +505,7 @@
         <v>9</v>
       </c>
       <c r="C6" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="7">
@@ -513,40 +516,40 @@
         <v>10</v>
       </c>
       <c r="C7" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
+        <v>11</v>
+      </c>
+      <c r="B8" t="s">
+        <v>11</v>
+      </c>
+      <c r="C8" t="s">
         <v>12</v>
-      </c>
-      <c r="B8" t="s">
-        <v>12</v>
-      </c>
-      <c r="C8" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
+        <v>13</v>
+      </c>
+      <c r="B9" t="s">
+        <v>13</v>
+      </c>
+      <c r="C9" t="s">
         <v>14</v>
-      </c>
-      <c r="B9" t="s">
-        <v>14</v>
-      </c>
-      <c r="C9" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
+        <v>15</v>
+      </c>
+      <c r="B10" t="s">
+        <v>15</v>
+      </c>
+      <c r="C10" t="s">
         <v>16</v>
-      </c>
-      <c r="B10" t="s">
-        <v>16</v>
-      </c>
-      <c r="C10" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="11">
@@ -557,7 +560,7 @@
         <v>17</v>
       </c>
       <c r="C11" t="s">
-        <v>4</v>
+        <v>12</v>
       </c>
     </row>
     <row r="12">
@@ -568,7 +571,7 @@
         <v>18</v>
       </c>
       <c r="C12" t="s">
-        <v>13</v>
+        <v>4</v>
       </c>
     </row>
     <row r="13">
@@ -579,7 +582,7 @@
         <v>19</v>
       </c>
       <c r="C13" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="14">
@@ -590,7 +593,7 @@
         <v>20</v>
       </c>
       <c r="C14" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
     </row>
     <row r="15">
@@ -601,7 +604,7 @@
         <v>21</v>
       </c>
       <c r="C15" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="16">
@@ -612,7 +615,7 @@
         <v>22</v>
       </c>
       <c r="C16" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="17">
@@ -623,7 +626,7 @@
         <v>23</v>
       </c>
       <c r="C17" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
     </row>
     <row r="18">
@@ -631,43 +634,54 @@
         <v>24</v>
       </c>
       <c r="B18" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C18" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
+        <v>25</v>
+      </c>
+      <c r="B19" t="s">
         <v>26</v>
       </c>
-      <c r="B19" t="s">
-        <v>27</v>
-      </c>
       <c r="C19" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
+        <v>27</v>
+      </c>
+      <c r="B20" t="s">
         <v>28</v>
       </c>
-      <c r="B20" t="s">
-        <v>29</v>
-      </c>
       <c r="C20" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
+        <v>29</v>
+      </c>
+      <c r="B21" t="s">
         <v>30</v>
       </c>
-      <c r="B21" t="s">
+      <c r="C21" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="s">
         <v>31</v>
       </c>
-      <c r="C21" t="s">
-        <v>15</v>
+      <c r="B22" t="s">
+        <v>32</v>
+      </c>
+      <c r="C22" t="s">
+        <v>16</v>
       </c>
     </row>
   </sheetData>

--- a/data/GreatLink/GreatLink Income Focus_Dividends.xlsx
+++ b/data/GreatLink/GreatLink Income Focus_Dividends.xlsx
@@ -7,7 +7,7 @@
     <workbookView activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="DividendHistory" sheetId="1" r:id="GemRid775223"/>
+    <sheet name="DividendHistory" sheetId="1" r:id="GemRid32488"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519"/>

--- a/data/GreatLink/GreatLink Income Focus_Dividends.xlsx
+++ b/data/GreatLink/GreatLink Income Focus_Dividends.xlsx
@@ -7,7 +7,7 @@
     <workbookView activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="DividendHistory" sheetId="1" r:id="GemRid32488"/>
+    <sheet name="DividendHistory" sheetId="1" r:id="GemRid872976"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519"/>

--- a/data/GreatLink/GreatLink Income Focus_Dividends.xlsx
+++ b/data/GreatLink/GreatLink Income Focus_Dividends.xlsx
@@ -7,7 +7,7 @@
     <workbookView activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="DividendHistory" sheetId="1" r:id="GemRid872976"/>
+    <sheet name="DividendHistory" sheetId="1" r:id="GemRid615852"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519"/>

--- a/data/GreatLink/GreatLink Income Focus_Dividends.xlsx
+++ b/data/GreatLink/GreatLink Income Focus_Dividends.xlsx
@@ -7,7 +7,7 @@
     <workbookView activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="DividendHistory" sheetId="1" r:id="GemRid615852"/>
+    <sheet name="DividendHistory" sheetId="1" r:id="GemRid974225"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519"/>

--- a/data/GreatLink/GreatLink Income Focus_Dividends.xlsx
+++ b/data/GreatLink/GreatLink Income Focus_Dividends.xlsx
@@ -7,7 +7,7 @@
     <workbookView activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="DividendHistory" sheetId="1" r:id="GemRid974225"/>
+    <sheet name="DividendHistory" sheetId="1" r:id="GemRid661712"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519"/>

--- a/data/GreatLink/GreatLink Income Focus_Dividends.xlsx
+++ b/data/GreatLink/GreatLink Income Focus_Dividends.xlsx
@@ -7,7 +7,7 @@
     <workbookView activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="DividendHistory" sheetId="1" r:id="GemRid661712"/>
+    <sheet name="DividendHistory" sheetId="1" r:id="GemRid319779"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="34">
   <si>
     <t>XD Date</t>
   </si>
@@ -26,6 +26,12 @@
     <t>Gross Dividend</t>
   </si>
   <si>
+    <t>06/11/2025</t>
+  </si>
+  <si>
+    <t>0.017</t>
+  </si>
+  <si>
     <t>06/05/2025</t>
   </si>
   <si>
@@ -51,9 +57,6 @@
   </si>
   <si>
     <t>09/05/2022</t>
-  </si>
-  <si>
-    <t>0.017</t>
   </si>
   <si>
     <t>05/11/2021</t>
@@ -472,29 +475,29 @@
         <v>5</v>
       </c>
       <c r="C3" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" t="s">
         <v>6</v>
-      </c>
-      <c r="B4" t="s">
-        <v>6</v>
-      </c>
-      <c r="C4" t="s">
-        <v>4</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C5" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="6">
@@ -505,29 +508,29 @@
         <v>9</v>
       </c>
       <c r="C6" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C7" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B8" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C8" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="9">
@@ -538,29 +541,29 @@
         <v>13</v>
       </c>
       <c r="C9" t="s">
-        <v>14</v>
+        <v>4</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
+        <v>14</v>
+      </c>
+      <c r="B10" t="s">
+        <v>14</v>
+      </c>
+      <c r="C10" t="s">
         <v>15</v>
-      </c>
-      <c r="B10" t="s">
-        <v>15</v>
-      </c>
-      <c r="C10" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
+        <v>16</v>
+      </c>
+      <c r="B11" t="s">
+        <v>16</v>
+      </c>
+      <c r="C11" t="s">
         <v>17</v>
-      </c>
-      <c r="B11" t="s">
-        <v>17</v>
-      </c>
-      <c r="C11" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="12">
@@ -582,7 +585,7 @@
         <v>19</v>
       </c>
       <c r="C13" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
     </row>
     <row r="14">
@@ -593,7 +596,7 @@
         <v>20</v>
       </c>
       <c r="C14" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="15">
@@ -604,7 +607,7 @@
         <v>21</v>
       </c>
       <c r="C15" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
     </row>
     <row r="16">
@@ -615,7 +618,7 @@
         <v>22</v>
       </c>
       <c r="C16" t="s">
-        <v>14</v>
+        <v>4</v>
       </c>
     </row>
     <row r="17">
@@ -626,7 +629,7 @@
         <v>23</v>
       </c>
       <c r="C17" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="18">
@@ -637,7 +640,7 @@
         <v>24</v>
       </c>
       <c r="C18" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
     </row>
     <row r="19">
@@ -645,43 +648,54 @@
         <v>25</v>
       </c>
       <c r="B19" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C19" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
+        <v>26</v>
+      </c>
+      <c r="B20" t="s">
         <v>27</v>
       </c>
-      <c r="B20" t="s">
-        <v>28</v>
-      </c>
       <c r="C20" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
+        <v>28</v>
+      </c>
+      <c r="B21" t="s">
         <v>29</v>
       </c>
-      <c r="B21" t="s">
-        <v>30</v>
-      </c>
       <c r="C21" t="s">
-        <v>14</v>
+        <v>4</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
+        <v>30</v>
+      </c>
+      <c r="B22" t="s">
         <v>31</v>
       </c>
-      <c r="B22" t="s">
+      <c r="C22" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="s">
         <v>32</v>
       </c>
-      <c r="C22" t="s">
-        <v>16</v>
+      <c r="B23" t="s">
+        <v>33</v>
+      </c>
+      <c r="C23" t="s">
+        <v>17</v>
       </c>
     </row>
   </sheetData>

--- a/data/GreatLink/GreatLink Income Focus_Dividends.xlsx
+++ b/data/GreatLink/GreatLink Income Focus_Dividends.xlsx
@@ -7,7 +7,7 @@
     <workbookView activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="DividendHistory" sheetId="1" r:id="GemRid319779"/>
+    <sheet name="DividendHistory" sheetId="1" r:id="GemRid223064"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519"/>

--- a/data/GreatLink/GreatLink Income Focus_Dividends.xlsx
+++ b/data/GreatLink/GreatLink Income Focus_Dividends.xlsx
@@ -7,7 +7,7 @@
     <workbookView activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="DividendHistory" sheetId="1" r:id="GemRid223064"/>
+    <sheet name="DividendHistory" sheetId="1" r:id="GemRid605085"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519"/>
